--- a/data/trans_dic/POLIPATOLOGIA_2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,13</t>
+          <t>15,82; 21,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,18; 29,11</t>
+          <t>22,73; 29,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,87; 26,27</t>
+          <t>20,13; 26,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,9; 41,21</t>
+          <t>32,97; 40,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,54; 33,5</t>
+          <t>26,12; 32,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>39,49; 47,41</t>
+          <t>39,63; 47,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,47; 42,07</t>
+          <t>34,13; 41,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,18; 49,24</t>
+          <t>34,26; 49,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,12; 26,62</t>
+          <t>22,12; 26,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,05; 37,33</t>
+          <t>32,06; 37,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,27; 33,14</t>
+          <t>28,12; 33,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,68; 44,11</t>
+          <t>36,12; 44,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,49; 22,61</t>
+          <t>17,33; 22,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,21; 26,76</t>
+          <t>21,4; 26,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 25,85</t>
+          <t>20,9; 26,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 29,89</t>
+          <t>12,43; 29,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,73; 37,3</t>
+          <t>30,7; 37,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,51; 41,23</t>
+          <t>34,95; 40,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,2; 40,68</t>
+          <t>34,05; 40,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>42,36; 47,62</t>
+          <t>42,59; 48,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,1; 29,14</t>
+          <t>25,13; 29,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,14; 33,18</t>
+          <t>29,05; 33,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28,27; 32,39</t>
+          <t>28,12; 32,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,28; 37,72</t>
+          <t>21,82; 37,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,06</t>
+          <t>16,83; 22,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,43; 24,95</t>
+          <t>18,45; 24,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,98; 25,21</t>
+          <t>19,06; 25,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28,91; 36,52</t>
+          <t>28,9; 36,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,51; 40,64</t>
+          <t>33,35; 41,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,9; 38,33</t>
+          <t>30,68; 37,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,83; 34,85</t>
+          <t>27,94; 34,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,02; 77,49</t>
+          <t>42,09; 76,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,06; 30,88</t>
+          <t>26,3; 31,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,5</t>
+          <t>25,73; 30,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,21; 29,04</t>
+          <t>24,51; 29,23</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,15; 64,48</t>
+          <t>37,61; 65,64</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 22,76</t>
+          <t>18,02; 22,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 28,81</t>
+          <t>22,94; 28,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,58</t>
+          <t>23,49; 29,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,4</t>
+          <t>31,04; 37,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,34; 36,06</t>
+          <t>30,09; 35,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,02; 42,2</t>
+          <t>35,99; 42,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,32; 40,85</t>
+          <t>33,95; 40,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>46,11; 62,31</t>
+          <t>45,82; 60,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,97; 28,79</t>
+          <t>24,99; 29,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,69; 35,12</t>
+          <t>30,46; 34,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 34,38</t>
+          <t>29,97; 34,33</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,0; 50,36</t>
+          <t>39,81; 50,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,38; 21,16</t>
+          <t>18,39; 21,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,79; 25,83</t>
+          <t>22,97; 25,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,38; 25,38</t>
+          <t>22,51; 25,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23,66; 33,4</t>
+          <t>24,15; 33,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,92; 35,19</t>
+          <t>31,94; 35,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,14; 40,32</t>
+          <t>37,1; 40,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>34,38; 37,88</t>
+          <t>34,45; 37,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,64</t>
+          <t>45,36; 58,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 27,96</t>
+          <t>25,53; 27,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,53; 32,86</t>
+          <t>30,5; 32,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,96; 31,24</t>
+          <t>28,93; 31,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>36,21; 45,64</t>
+          <t>36,37; 46,04</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dos o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>130825</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>181251</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>156110</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>234648</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>206231</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>303918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>256658</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>326377</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>337056</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>485169</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>412767</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>561025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109765; 151370</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>159917; 207433</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>135816; 179460</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>209521; 259121</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>179831; 227112</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>276258; 333415</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>229656; 281447</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>248495; 357338</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>305847; 368209</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>448997; 524143</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>378902; 446221</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>491496; 601619</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1113</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>192065</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>243885</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>237193</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>273078</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>328881</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>392591</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>389674</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>431313</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>520946</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>636476</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>626867</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>704391</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>166693; 219808</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>217889; 274237</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>213669; 266041</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>148252; 355221</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>297321; 358953</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>360750; 422246</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>355135; 421155</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>408321; 460886</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>485136; 561003</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>595637; 682738</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>580748; 671197</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>469475; 806570</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>135141</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>163289</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>167445</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>229839</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>253758</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>267639</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>244499</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>522547</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>388898</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>430928</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>411944</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>752386</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114197; 155982</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>139757; 188666</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>144767; 190833</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>203653; 258175</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>228062; 282314</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>238433; 294910</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>219345; 273375</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>392873; 712156</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>358339; 423437</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>394864; 467880</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>378623; 451448</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>615995; 1075206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>811</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>587</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1213</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>189952</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>244429</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>248861</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>317114</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>343491</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>412429</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>388951</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>551732</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>533443</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>656858</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>637812</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>868846</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>169814; 215153</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>217455; 273605</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>220222; 276378</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>287732; 347671</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>312498; 372272</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>378618; 444664</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>354407; 421683</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>501693; 657593</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>495109; 576240</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>609047; 698265</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>593841; 680276</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>804879; 1017519</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1324</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1279</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2774</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2040</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1934</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4098</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>647983</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>832854</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>809608</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1054679</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1132361</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1376577</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1279781</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1831969</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1780344</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2209431</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2089390</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2886648</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>602418; 688582</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>787129; 888717</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>764151; 859191</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>835717; 1156801</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1079246; 1194125</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1320215; 1442583</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1220979; 1338743</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1683891; 2167780</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1699278; 1855089</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>2130636; 2286226</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2007492; 2164548</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2608595; 3302182</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>